--- a/analysis/SimpleNN-Table-Rounds-5.xlsx
+++ b/analysis/SimpleNN-Table-Rounds-5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ravar\Documents\GitHub\recsys-federated-fairness-didactic\analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B8DE75-F26C-4313-8577-4474C96E8976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81BAC718-5C66-4171-8A1B-3E574DD2A423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="743" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -562,13 +562,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -912,7 +912,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D6DE120-0D7E-4282-8695-6093EFD37C0D}">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -955,10 +957,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="16" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="14" t="s">
@@ -985,8 +987,8 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
       <c r="C3" s="14" t="s">
         <v>6</v>
       </c>
@@ -1011,8 +1013,8 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17" t="s">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="14" t="s">
@@ -1039,8 +1041,8 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="14" t="s">
         <v>6</v>
       </c>
@@ -1065,8 +1067,8 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17" t="s">
+      <c r="A6" s="16"/>
+      <c r="B6" s="16" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="14" t="s">
@@ -1093,8 +1095,8 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="14" t="s">
         <v>6</v>
       </c>
@@ -1119,8 +1121,8 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17" t="s">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="14" t="s">
@@ -1147,8 +1149,8 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
       <c r="C9" s="14" t="s">
         <v>6</v>
       </c>
@@ -1173,8 +1175,8 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17" t="s">
+      <c r="A10" s="16"/>
+      <c r="B10" s="16" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="14" t="s">
@@ -1201,8 +1203,8 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
       <c r="C11" s="14" t="s">
         <v>6</v>
       </c>
@@ -1227,8 +1229,8 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17" t="s">
+      <c r="A12" s="16"/>
+      <c r="B12" s="16" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="14" t="s">
@@ -1255,8 +1257,8 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
       <c r="C13" s="14" t="s">
         <v>6</v>
       </c>
@@ -1293,20 +1295,20 @@
       <c r="J14" s="11"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="16" t="s">
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16" t="s">
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
@@ -1603,7 +1605,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD1D5657-C818-4973-96B4-36D8E34E6FCE}">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView zoomScale="107" zoomScaleNormal="107" workbookViewId="0"/>
+    <sheetView zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1646,10 +1650,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="16" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="14" t="s">
@@ -1676,8 +1680,8 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
       <c r="C3" s="14" t="s">
         <v>6</v>
       </c>
@@ -1702,8 +1706,8 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17" t="s">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="14" t="s">
@@ -1730,8 +1734,8 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="14" t="s">
         <v>6</v>
       </c>
@@ -1756,8 +1760,8 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17" t="s">
+      <c r="A6" s="16"/>
+      <c r="B6" s="16" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="14" t="s">
@@ -1784,8 +1788,8 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="14" t="s">
         <v>6</v>
       </c>
@@ -1810,8 +1814,8 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17" t="s">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="14" t="s">
@@ -1838,8 +1842,8 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
       <c r="C9" s="14" t="s">
         <v>6</v>
       </c>
@@ -1864,8 +1868,8 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17" t="s">
+      <c r="A10" s="16"/>
+      <c r="B10" s="16" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="14" t="s">
@@ -1892,8 +1896,8 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
       <c r="C11" s="14" t="s">
         <v>6</v>
       </c>
@@ -1918,8 +1922,8 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17" t="s">
+      <c r="A12" s="16"/>
+      <c r="B12" s="16" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="14" t="s">
@@ -1946,8 +1950,8 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
       <c r="C13" s="14" t="s">
         <v>6</v>
       </c>
@@ -1984,20 +1988,20 @@
       <c r="J14" s="11"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="16" t="s">
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16" t="s">
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
@@ -2039,7 +2043,7 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <f>AVERAGE(0.021396633, 0.025150737, 0.021924542)</f>
+        <f t="shared" ref="C17:C22" si="4">AVERAGE(0.021396633, 0.025150737, 0.021924542)</f>
         <v>2.2823970666666669E-2</v>
       </c>
       <c r="D17" s="3">
@@ -2079,7 +2083,7 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <f t="shared" ref="C18:C22" si="4">AVERAGE(0.021396633, 0.025150737, 0.021924542)</f>
+        <f t="shared" si="4"/>
         <v>2.2823970666666669E-2</v>
       </c>
       <c r="D18" s="3">
@@ -2199,7 +2203,7 @@
         <v>16</v>
       </c>
       <c r="C21" s="7">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(0.021396633, 0.025150737, 0.021924542)</f>
         <v>2.2823970666666669E-2</v>
       </c>
       <c r="D21" s="3">
@@ -2295,7 +2299,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2339,10 +2343,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="16" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="14" t="s">
@@ -2369,8 +2373,8 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
       <c r="C3" s="14" t="s">
         <v>6</v>
       </c>
@@ -2395,8 +2399,8 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17" t="s">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="14" t="s">
@@ -2423,8 +2427,8 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="14" t="s">
         <v>6</v>
       </c>
@@ -2449,8 +2453,8 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17" t="s">
+      <c r="A6" s="16"/>
+      <c r="B6" s="16" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="14" t="s">
@@ -2477,8 +2481,8 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="14" t="s">
         <v>6</v>
       </c>
@@ -2503,8 +2507,8 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17" t="s">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="14" t="s">
@@ -2531,8 +2535,8 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
       <c r="C9" s="14" t="s">
         <v>6</v>
       </c>
@@ -2557,8 +2561,8 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17" t="s">
+      <c r="A10" s="16"/>
+      <c r="B10" s="16" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="14" t="s">
@@ -2585,8 +2589,8 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
       <c r="C11" s="14" t="s">
         <v>6</v>
       </c>
@@ -2611,8 +2615,8 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17" t="s">
+      <c r="A12" s="16"/>
+      <c r="B12" s="16" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="14" t="s">
@@ -2639,8 +2643,8 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
       <c r="C13" s="14" t="s">
         <v>6</v>
       </c>
@@ -2677,20 +2681,20 @@
       <c r="J14" s="11"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="16" t="s">
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16" t="s">
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
